--- a/biology/Zoologie/Hocco_de_Salvin/Hocco_de_Salvin.xlsx
+++ b/biology/Zoologie/Hocco_de_Salvin/Hocco_de_Salvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitu salvini
 L’Hocco de Salvin (Mitu salvini) est une espèce d'oiseau de la famille des Cracidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 89 cm de longueur. Son plumage est d'un noir bleuté brillant avec le ventre et le bout de la queue blancs. Il a une huppe développée. Le bec court, crochu, aplati transversalement est rouge ou orange, les pattes sont rouges.
 </t>
@@ -543,7 +557,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit des fruits tombés sur le sol et de graines.
 </t>
@@ -574,7 +590,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit seul, en couple ou en petit groupe. Il vit sur le sol.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans la Serranía de la Macarena en Colombie, Équateur et Pérou.
 </t>
@@ -636,7 +656,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts humides tropicales et subtropicales en plaine et montagne (jusqu'à 600 m d'altitude).
 </t>
